--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEE11ED-3EF5-41DB-9841-5442488FE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40694A8-1D87-4749-A28B-7D26F9F1E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,13 @@
   </si>
   <si>
     <t>needPassiveValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive3</t>
+  </si>
+  <si>
+    <t>수미산 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,7 +591,7 @@
         <v>3.9999999999999998E-7</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -597,6 +604,39 @@
       </c>
       <c r="J4">
         <f>F3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>1.6E-7</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <f>F4</f>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40694A8-1D87-4749-A28B-7D26F9F1E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A52D39E-B90A-4E0D-9ECB-93ADF80EAB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>수미산 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +636,7 @@
         <v>1.6E-7</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -637,6 +649,39 @@
       </c>
       <c r="J5">
         <f>F4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>2E-3</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <f>F5</f>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PassiveSkill2.xlsx
+++ b/Assets/06.Table/PassiveSkill2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A52D39E-B90A-4E0D-9ECB-93ADF80EAB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3E7B8-74CC-46E5-9D35-65600862E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,16 @@
   </si>
   <si>
     <t>도적단 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive5</t>
+  </si>
+  <si>
+    <t>passive4</t>
+  </si>
+  <si>
+    <t>심연 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,7 +679,7 @@
         <v>2E-3</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -682,6 +692,39 @@
       </c>
       <c r="J6">
         <f>F5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <f>F6</f>
         <v>100</v>
       </c>
     </row>
